--- a/biorefineries/succinic/analyses/parameter_distributions/parameter-distributions_pilot-scale_batch.xlsx
+++ b/biorefineries/succinic/analyses/parameter_distributions/parameter-distributions_pilot-scale_batch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\succinic\analyses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\succinic\analyses\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5FE3BE-6FBC-424C-9490-98CCE52181C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68436D7-612E-4B17-8073-32C63CD42171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="94">
   <si>
     <t>Parameter name</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>Triangular</t>
+  </si>
+  <si>
+    <t>Fermentation kW per m3</t>
+  </si>
+  <si>
+    <t>kW/m3</t>
+  </si>
+  <si>
+    <t>R302.kW_per_m3 = x</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -421,11 +430,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,6 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,41 +1579,41 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>34</v>
+      <c r="A26" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>0.19885</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="G26" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
+        <f>0.8*E26</f>
+        <v>0.15908</v>
+      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="3">
-        <v>1.2</v>
+        <f>1.2*E26</f>
+        <v>0.23862</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>18</v>
@@ -1604,88 +1625,121 @@
         <v>17</v>
       </c>
       <c r="E27" s="3">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G27" s="3">
-        <f>0.8*E27</f>
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="H27" s="3">
-        <f>E27</f>
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E28" s="3">
-        <v>168</v>
+        <v>0.85</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G28" s="3">
-        <v>134.4</v>
+        <f>0.8*E28</f>
+        <v>0.68</v>
       </c>
       <c r="H28" s="3">
-        <v>168</v>
+        <f>E28</f>
+        <v>0.85</v>
       </c>
       <c r="I28" s="3">
-        <v>201.6</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E29" s="3">
-        <v>0.8</v>
+        <v>168</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="G29" s="3">
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>134.4</v>
+      </c>
+      <c r="H29" s="3">
+        <v>168</v>
+      </c>
       <c r="I29" s="3">
-        <v>0.88000000000000012</v>
+        <v>201.6</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
         <v>65</v>
       </c>
     </row>

--- a/biorefineries/succinic/analyses/parameter_distributions/parameter-distributions_pilot-scale_batch.xlsx
+++ b/biorefineries/succinic/analyses/parameter_distributions/parameter-distributions_pilot-scale_batch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\succinic\analyses\parameter_distributions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\succinic\analyses\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68436D7-612E-4B17-8073-32C63CD42171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D704D9-96E9-490A-8CD2-6C03765BA024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>Baseline</t>
-  </si>
-  <si>
-    <t>Load Statements</t>
   </si>
   <si>
     <t>g/L/h</t>
@@ -350,6 +347,9 @@
   </si>
   <si>
     <t>R302.kW_per_m3 = x</t>
+  </si>
+  <si>
+    <t>Load statement</t>
   </si>
 </sst>
 </file>
@@ -739,21 +739,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="11" max="11" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -782,13 +782,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -816,10 +816,10 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -847,10 +847,10 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -867,7 +867,7 @@
         <v>0.54790000000000005</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3">
         <v>0.49310999999999999</v>
@@ -880,10 +880,10 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -900,7 +900,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="3">
         <v>2.76E-2</v>
@@ -913,10 +913,10 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -933,7 +933,7 @@
         <v>0.25269999999999998</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3">
         <v>0.19800000000000001</v>
@@ -946,10 +946,10 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -966,7 +966,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="3">
         <v>6.7000000000000004E-2</v>
@@ -979,10 +979,10 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -999,7 +999,7 @@
         <v>1.387</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3">
         <v>0.99399999999999999</v>
@@ -1012,12 +1012,12 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1032,7 +1032,7 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="3">
         <v>0.25700000000000001</v>
@@ -1045,12 +1045,12 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1065,7 +1065,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3">
         <v>0.16</v>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1098,7 +1098,7 @@
         <v>0.187</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="3">
         <v>0.17799999999999999</v>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1131,7 +1131,7 @@
         <v>0.505</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="3">
         <v>0.46</v>
@@ -1144,10 +1144,10 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>96000</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="3">
         <v>76800</v>
@@ -1177,10 +1177,10 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
@@ -1210,10 +1210,10 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0.9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="3">
         <v>0.81</v>
@@ -1243,12 +1243,12 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
@@ -1274,10 +1274,10 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0.47299999999999998</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="5">
         <f>0.8*E17</f>
@@ -1310,10 +1310,10 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -1324,13 +1324,13 @@
         <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="5">
         <v>63.1</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="5">
         <v>50.48</v>
@@ -1343,10 +1343,10 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="5">
         <v>0.6573</v>
@@ -1376,10 +1376,10 @@
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0.186</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="4">
         <f>E20*0.8</f>
@@ -1412,12 +1412,12 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
@@ -1426,7 +1426,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="4">
         <f>(G21+I21)/2</f>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
@@ -1511,12 +1511,12 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
@@ -1525,7 +1525,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4">
         <f>(G24+I24)/2</f>
@@ -1543,12 +1543,12 @@
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="4">
         <f>(G25+I25)/2</f>
@@ -1575,12 +1575,12 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
@@ -1589,7 +1589,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="3">
         <v>0.19885</v>
@@ -1608,10 +1608,10 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="3">
         <v>0.8</v>
@@ -1641,10 +1641,10 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>0.85</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="3">
         <f>0.8*E28</f>
@@ -1676,10 +1676,10 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>168</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="3">
         <v>134.4</v>
@@ -1709,10 +1709,10 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/biorefineries/succinic/analyses/parameter_distributions/parameter-distributions_pilot-scale_batch.xlsx
+++ b/biorefineries/succinic/analyses/parameter_distributions/parameter-distributions_pilot-scale_batch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\succinic\analyses\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D704D9-96E9-490A-8CD2-6C03765BA024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32757811-EA4E-45B7-B0CD-EBD5C98E7854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="95">
   <si>
     <t>Parameter name</t>
   </si>
@@ -101,9 +101,6 @@
     <t>h</t>
   </si>
   <si>
-    <t>Plant uptime</t>
-  </si>
-  <si>
     <t>Feedstock unit price</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
   </si>
   <si>
     <t>PowerUtility.price = x</t>
-  </si>
-  <si>
-    <t>tea.operating_days = 365. * x</t>
   </si>
   <si>
     <t>BT701.natural_gas_price = F404.ins[2].price = x</t>
@@ -350,6 +344,15 @@
   </si>
   <si>
     <t>Load statement</t>
+  </si>
+  <si>
+    <t>Plant annual operating days</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>tea.operating_days = x</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,6 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,7 +757,7 @@
     <col min="11" max="11" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,13 +765,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -782,21 +786,21 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -805,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3">
         <v>0.9</v>
@@ -816,18 +820,18 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -836,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3">
         <v>-2.8799999999999999E-2</v>
@@ -847,84 +851,96 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="4">
+        <v>180</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="4">
+        <v>120</v>
+      </c>
+      <c r="H4" s="4">
+        <f>E4</f>
+        <v>180</v>
+      </c>
+      <c r="I4" s="4">
+        <v>240</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7">
+        <f>IF(E4=H4, 1, IF(F4=$F$2, 1, 0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.54790000000000005</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.49310999999999999</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.54790000000000005</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.60269000000000006</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.5920000000000001E-2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="4">
+        <f>E5*0.8</f>
+        <v>2.8736000000000001E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <f>E5</f>
+        <v>3.5920000000000001E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <f>E5*1.2</f>
+        <v>4.3103999999999996E-2</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" ref="Q5" si="0">IF(E5=H5, 1, IF(F5=$F$2, 1, 0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2.76E-2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="I5" s="3">
-        <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
@@ -933,7 +949,7 @@
         <v>0.25269999999999998</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="3">
         <v>0.19800000000000001</v>
@@ -946,18 +962,18 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
@@ -966,7 +982,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G7" s="3">
         <v>6.7000000000000004E-2</v>
@@ -979,18 +995,18 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -999,7 +1015,7 @@
         <v>1.387</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="3">
         <v>0.99399999999999999</v>
@@ -1012,18 +1028,18 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
@@ -1032,7 +1048,7 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G9" s="3">
         <v>0.25700000000000001</v>
@@ -1045,18 +1061,18 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>11</v>
@@ -1065,7 +1081,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="3">
         <v>0.16</v>
@@ -1078,18 +1094,18 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
@@ -1098,7 +1114,7 @@
         <v>0.187</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G11" s="3">
         <v>0.17799999999999999</v>
@@ -1111,18 +1127,18 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
@@ -1131,7 +1147,7 @@
         <v>0.505</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G12" s="3">
         <v>0.46</v>
@@ -1144,18 +1160,18 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>14</v>
@@ -1164,7 +1180,7 @@
         <v>96000</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" s="3">
         <v>76800</v>
@@ -1177,18 +1193,18 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>15</v>
@@ -1197,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
@@ -1210,18 +1226,18 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
@@ -1230,7 +1246,7 @@
         <v>0.9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15" s="3">
         <v>0.81</v>
@@ -1243,18 +1259,18 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>8</v>
@@ -1263,7 +1279,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="4">
         <v>0.01</v>
@@ -1274,18 +1290,18 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>16</v>
@@ -1294,7 +1310,7 @@
         <v>0.47299999999999998</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" s="5">
         <f>0.8*E17</f>
@@ -1310,27 +1326,27 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" s="5">
         <v>63.1</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G18" s="5">
         <v>50.48</v>
@@ -1343,27 +1359,27 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="5">
         <v>0.6573</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="5">
         <f>0.81*E19</f>
@@ -1376,27 +1392,27 @@
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="4">
         <v>0.186</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G20" s="4">
         <f>E20*0.8</f>
@@ -1412,28 +1428,28 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E21" s="4">
         <f>(G21+I21)/2</f>
         <v>0.42090000000000005</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="4">
         <v>0.29880000000000001</v>
@@ -1444,18 +1460,18 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
@@ -1465,7 +1481,7 @@
         <v>5.7587510773764838E-2</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="4">
         <f>5/114</f>
@@ -1478,18 +1494,18 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>16</v>
@@ -1499,7 +1515,7 @@
         <v>7.1315372424722665E-3</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
@@ -1511,28 +1527,28 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E24" s="4">
         <f>(G24+I24)/2</f>
         <v>3.5735000000000001</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="4">
         <v>1.8460000000000001</v>
@@ -1543,28 +1559,28 @@
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" s="4">
         <f>(G25+I25)/2</f>
         <v>1.2755000000000001</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="4">
         <v>1.0009999999999999</v>
@@ -1575,27 +1591,27 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E26" s="3">
         <v>0.19885</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="3">
         <f>0.8*E26</f>
@@ -1608,18 +1624,18 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>17</v>
@@ -1628,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G27" s="3">
         <v>0.8</v>
@@ -1641,18 +1657,18 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>17</v>
@@ -1661,7 +1677,7 @@
         <v>0.85</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G28" s="3">
         <f>0.8*E28</f>
@@ -1676,18 +1692,18 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>20</v>
@@ -1696,7 +1712,7 @@
         <v>168</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G29" s="3">
         <v>134.4</v>
@@ -1709,18 +1725,18 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>8</v>
@@ -1729,7 +1745,7 @@
         <v>0.8</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="3">
         <v>0.72000000000000008</v>
@@ -1740,7 +1756,7 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
